--- a/pythonProject/X.xlsx
+++ b/pythonProject/X.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,42 +434,49 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>userIDs</t>
+        </is>
+      </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>userIDs</t>
+          <t>timePosts</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>timePosts</t>
+          <t>tweetTexts</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>tweetTexts</t>
+          <t>likes</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>likes</t>
+          <t>replys</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>replys</t>
+          <t>resports</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>resports</t>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>tweetIMG</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>M-TP
 @sontungmtp777
@@ -477,12 +484,12 @@
 Jun 22</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2024-06-22T12:08:59.000Z</t>
+        </is>
+      </c>
       <c r="C2" t="inlineStr">
-        <is>
-          <t>2024-06-22T12:08:59.000Z</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Đoàn tàu [DLTTAD] đã chính thức khởi hành  
 Xin quý khách ổn định chỗ ngồi và tận hưởng trọn vẹn chuyến đi tại đây  https://youtu.be/FEmnnU-HhnQ 
@@ -490,27 +497,34 @@
 #7MinuteStage #SonTungMTP</t>
         </is>
       </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>797</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>797</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>156</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>156</t>
+          <t>28870</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GQrTIAAaIAEen2G?format=jpg&amp;name=small, https://pbs.twimg.com/media/GQrTIACaEAA9LLB?format=jpg&amp;name=360x360, https://pbs.twimg.com/media/GQrTIABbAAAzpQE?format=jpg&amp;name=small, https://pbs.twimg.com/media/GQrTIACagAA5TCb?format=jpg&amp;name=360x360</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>M-TP
 @sontungmtp777
@@ -518,39 +532,46 @@
 Jun 20</t>
         </is>
       </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-06-20T12:14:23.000Z</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
-        <is>
-          <t>2024-06-20T12:14:23.000Z</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
         <is>
           <t>Xin chào quý khách, chuyến tàu mang số hiệu #DLTTAD sẽ khởi hành trong 2 ngày nữa 
 Xin quý khách lưu lại thông tin, chuẩn bị mọi hành trang để có một trải nghiệm tuyệt vời cùng chúng tôi. Chúc quý khách có một chuyến đi tốt đẹp!
 #SonTungMTP #7MinuteStage</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>693</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>18</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>139</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>139</t>
+          <t>26028</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GQhBLXSagAAdadm?format=jpg&amp;name=small</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>M-TP
 @sontungmtp777
@@ -558,38 +579,45 @@
 Jun 18</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-06-18T04:39:22.000Z</t>
+        </is>
+      </c>
       <c r="C4" t="inlineStr">
-        <is>
-          <t>2024-06-18T04:39:22.000Z</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>Còn gì để nóii nữaaaaa … Quá là tuyệt vời rồi … Tùng cảm ơn mọi người nhiều lắmmmmmmmm 
 #DLTTAD #sontungmtp #mtpentertainment</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>720</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>11</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>135</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>19985</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GQVF2wuakAAav5-?format=jpg&amp;name=small</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>M-TP
 @sontungmtp777
@@ -597,12 +625,12 @@
 Jun 14</t>
         </is>
       </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-06-14T12:53:33.000Z</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
-        <is>
-          <t>2024-06-14T12:53:33.000Z</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
         <is>
           <t>Tình hình làaaaaaaa … KHÔNG CÒN GÌ ĐỂ NÓI CẢ …
 22M on YOUTUBE REALTIME
@@ -611,27 +639,34 @@
 Vẫn là PERFECT ALL KILL ..</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>15</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>145</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>14482</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GQCQhIxaQAAJ6-V?format=jpg&amp;name=small</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>M-TP
 @sontungmtp777
@@ -639,12 +674,12 @@
 Jun 13</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-06-13T16:27:23.000Z</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr">
-        <is>
-          <t>2024-06-13T16:27:23.000Z</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
         <is>
           <t xml:space="preserve">Tình hình làaaa … DLTTAD đã đạt 20.000.000 views … 
 Cảm ơn mọi người thật nhiềuuuuu 
@@ -652,19 +687,273 @@
  https://youtu.be/abPmZCZZrFA?si=vGCaPAeKRXMnBOul… </t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>622</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>623</t>
+          <t>17</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>14429</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GP939M9aUAAWMA1?format=jpg&amp;name=small</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>M-TP
+@sontungmtp777
+·
+Jun 10</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-06-10T12:03:37.000Z</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PERFECT ALL KILL …
+SỐ 1 CHO TẤT CẢ …
+Cảm ơn những điều tuyệt vời mà mọi người đã dành cho ĐỪNG LÀM TRÁI TIM ANH ĐAU … 
+YÊU MỌI NGƯỜI NHIỀU LẮM </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>637</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>17</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>147</t>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>12954</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GPte0OUaMAAEQNM?format=jpg&amp;name=small</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>M-TP
+@sontungmtp777
+·
+Jun 10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-06-10T03:15:13.000Z</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ngày mới đầy năng lượng và thật yêu đời nhé 
+NHỚ đừng quên ủng hộ và yêu thương em í trên cả APPLE MUSIC nữa nhaaa  https://vivienm.lnk.to/DLTTAD/applemusic… 
+#DLTTAD </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>11096</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GPrl4SuXIAArT6X?format=jpg&amp;name=small</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>M-TP
+@sontungmtp777
+·
+Jun 9</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-06-09T14:55:59.000Z</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Hơn 7.000.000 views cho ĐỪNG LÀM TRÁI TIM ANH ĐAU 
+TOP 1 Most viewed videos in the past 24 hours ASIAN
+TOP 1 Most viewed videos in the past 24 hours WORLDWIDE
+TOP YOUTUBE OVERALL TRENDING
+#1 Vietnam
+#12 Germany
+TOP TRENDING MUSIC 7 QUỐC GIA</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>761</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>13063</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GPo8rStacAAC0dy?format=jpg&amp;name=360x360, https://pbs.twimg.com/media/GPo8rSsaYAA0SYS?format=jpg&amp;name=small, https://pbs.twimg.com/media/GPo8rSna8AAZSh8?format=jpg&amp;name=small, https://pbs.twimg.com/media/GPo8rSraEAAKSX5?format=jpg&amp;name=small</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>M-TP
+@sontungmtp777
+·
+Jun 9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-06-09T09:41:08.000Z</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TOP 1  MOST VIEWED VIDEOS
+WORLDWIDE IN 24 HOURS
+5.000.000 VIEWS
+ Official Music Video: ĐỪNG LÀM TRÁI TIM ANH ĐAU  https://youtu.be/abPmZCZZrFA 
+#DLTTAD </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>9394</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GPn0ncJbgAA7ScW?format=jpg&amp;name=small</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>M-TP
+@sontungmtp777
+·
+Jun 9</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-06-09T03:45:33.000Z</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hơn 4.000.000 views cho ĐỪNG LÀM TRÁI TIM ANH ĐAU 
+Vàaaaa … Rất nhiều những SỐ 1 tuyệt vời trong bức hình í … 
+Yêu mọi người nhiều lắmmmmm ….
+ Official Music Video: ĐỪNG LÀM TRÁI TIM ANH ĐAU  https://youtu.be/abPmZCZZrFA 
+#DLTTAD </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>616</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>15106</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>https://pbs.twimg.com/media/GPmjNL6bQAAORp9?format=jpg&amp;name=small</t>
         </is>
       </c>
     </row>

--- a/pythonProject/X.xlsx
+++ b/pythonProject/X.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28870</t>
+          <t>28883</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>26028</t>
+          <t>26040</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -607,7 +607,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>19985</t>
+          <t>19990</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
@@ -656,7 +656,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>14482</t>
+          <t>14483</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
@@ -704,7 +704,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>14429</t>
+          <t>14431</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>637</t>
+          <t>636</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -752,7 +752,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>12954</t>
+          <t>12955</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
@@ -850,7 +850,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>13063</t>
+          <t>13066</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>9394</t>
+          <t>9398</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -948,7 +948,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>15106</t>
+          <t>15109</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
